--- a/guide/sdr-decedent-Decedent.xlsx
+++ b/guide/sdr-decedent-Decedent.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8250" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8250" uniqueCount="599">
   <si>
     <t>Path</t>
   </si>
@@ -1200,7 +1200,7 @@
     <t>Patient.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address {[CanonicalType[http://nightingaleproject.github.io/fhirDeathRecord/StructureDefinition/sdr-decedent-Residency]]} {[]}
+    <t xml:space="preserve">Address {[CanonicalType[http://nightingaleproject.github.io/fhirDeathRecord/StructureDefinition/shr-core-PostalAddress]]} {[]}
 </t>
   </si>
   <si>
@@ -1483,10 +1483,6 @@
   </si>
   <si>
     <t>Patient.contact.address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address {[CanonicalType[http://nightingaleproject.github.io/fhirDeathRecord/StructureDefinition/shr-core-Address]]} {[]}
-</t>
   </si>
   <si>
     <t>Address for the contact person</t>
@@ -14436,17 +14432,17 @@
         <v>45</v>
       </c>
       <c r="J108" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="K108" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="K108" t="s" s="2">
+      <c r="L108" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="L108" t="s" s="2">
-        <v>474</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="O108" t="s" s="2">
         <v>45</v>
@@ -14522,7 +14518,7 @@
         <v>45</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>45</v>
@@ -14530,7 +14526,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -14559,11 +14555,11 @@
         <v>353</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="M109" s="2"/>
       <c r="N109" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>45</v>
@@ -14591,7 +14587,7 @@
         <v>161</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="Y109" t="s" s="2">
         <v>357</v>
@@ -14612,7 +14608,7 @@
         <v>45</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>43</v>
@@ -14639,7 +14635,7 @@
         <v>45</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>45</v>
@@ -14647,7 +14643,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -14673,14 +14669,14 @@
         <v>264</v>
       </c>
       <c r="K110" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="L110" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="L110" t="s" s="2">
-        <v>484</v>
       </c>
       <c r="M110" s="2"/>
       <c r="N110" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="O110" t="s" s="2">
         <v>45</v>
@@ -14729,7 +14725,7 @@
         <v>45</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>43</v>
@@ -14738,16 +14734,16 @@
         <v>53</v>
       </c>
       <c r="AH110" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AI110" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ110" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK110" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="AI110" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ110" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK110" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>154</v>
@@ -14756,7 +14752,7 @@
         <v>45</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>45</v>
@@ -14764,7 +14760,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -14790,10 +14786,10 @@
         <v>257</v>
       </c>
       <c r="K111" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="L111" t="s" s="2">
         <v>490</v>
-      </c>
-      <c r="L111" t="s" s="2">
-        <v>491</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
@@ -14844,7 +14840,7 @@
         <v>45</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>43</v>
@@ -14862,7 +14858,7 @@
         <v>45</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>154</v>
@@ -14882,7 +14878,7 @@
         <v>412</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C112" t="s" s="2">
         <v>45</v>
@@ -14907,10 +14903,10 @@
         <v>413</v>
       </c>
       <c r="K112" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="L112" t="s" s="2">
         <v>494</v>
-      </c>
-      <c r="L112" t="s" s="2">
-        <v>495</v>
       </c>
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
@@ -18116,17 +18112,17 @@
         <v>45</v>
       </c>
       <c r="J140" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="K140" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="K140" t="s" s="2">
+      <c r="L140" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="L140" t="s" s="2">
-        <v>474</v>
       </c>
       <c r="M140" s="2"/>
       <c r="N140" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="O140" t="s" s="2">
         <v>45</v>
@@ -18202,7 +18198,7 @@
         <v>45</v>
       </c>
       <c r="AN140" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AO140" t="s" s="2">
         <v>45</v>
@@ -18210,7 +18206,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -18239,11 +18235,11 @@
         <v>353</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="M141" s="2"/>
       <c r="N141" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="O141" t="s" s="2">
         <v>45</v>
@@ -18271,7 +18267,7 @@
         <v>161</v>
       </c>
       <c r="X141" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="Y141" t="s" s="2">
         <v>357</v>
@@ -18292,7 +18288,7 @@
         <v>45</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>43</v>
@@ -18319,7 +18315,7 @@
         <v>45</v>
       </c>
       <c r="AN141" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AO141" t="s" s="2">
         <v>45</v>
@@ -18327,7 +18323,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -18353,14 +18349,14 @@
         <v>264</v>
       </c>
       <c r="K142" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="L142" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="L142" t="s" s="2">
-        <v>484</v>
       </c>
       <c r="M142" s="2"/>
       <c r="N142" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="O142" t="s" s="2">
         <v>45</v>
@@ -18409,7 +18405,7 @@
         <v>45</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>43</v>
@@ -18418,16 +18414,16 @@
         <v>53</v>
       </c>
       <c r="AH142" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AI142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK142" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="AI142" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ142" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK142" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="AL142" t="s" s="2">
         <v>154</v>
@@ -18436,7 +18432,7 @@
         <v>45</v>
       </c>
       <c r="AN142" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AO142" t="s" s="2">
         <v>45</v>
@@ -18444,7 +18440,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -18470,10 +18466,10 @@
         <v>257</v>
       </c>
       <c r="K143" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="L143" t="s" s="2">
         <v>490</v>
-      </c>
-      <c r="L143" t="s" s="2">
-        <v>491</v>
       </c>
       <c r="M143" s="2"/>
       <c r="N143" s="2"/>
@@ -18524,7 +18520,7 @@
         <v>45</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>43</v>
@@ -18542,7 +18538,7 @@
         <v>45</v>
       </c>
       <c r="AK143" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AL143" t="s" s="2">
         <v>154</v>
@@ -18562,7 +18558,7 @@
         <v>412</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C144" t="s" s="2">
         <v>45</v>
@@ -18587,10 +18583,10 @@
         <v>413</v>
       </c>
       <c r="K144" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="L144" t="s" s="2">
         <v>497</v>
-      </c>
-      <c r="L144" t="s" s="2">
-        <v>498</v>
       </c>
       <c r="M144" s="2"/>
       <c r="N144" s="2"/>
@@ -21796,17 +21792,17 @@
         <v>45</v>
       </c>
       <c r="J172" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="K172" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="K172" t="s" s="2">
+      <c r="L172" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="L172" t="s" s="2">
-        <v>474</v>
       </c>
       <c r="M172" s="2"/>
       <c r="N172" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="O172" t="s" s="2">
         <v>45</v>
@@ -21882,7 +21878,7 @@
         <v>45</v>
       </c>
       <c r="AN172" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AO172" t="s" s="2">
         <v>45</v>
@@ -21890,7 +21886,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -21919,11 +21915,11 @@
         <v>353</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="M173" s="2"/>
       <c r="N173" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="O173" t="s" s="2">
         <v>45</v>
@@ -21951,7 +21947,7 @@
         <v>161</v>
       </c>
       <c r="X173" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="Y173" t="s" s="2">
         <v>357</v>
@@ -21972,7 +21968,7 @@
         <v>45</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>43</v>
@@ -21999,7 +21995,7 @@
         <v>45</v>
       </c>
       <c r="AN173" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AO173" t="s" s="2">
         <v>45</v>
@@ -22007,7 +22003,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -22033,14 +22029,14 @@
         <v>264</v>
       </c>
       <c r="K174" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="L174" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="L174" t="s" s="2">
-        <v>484</v>
       </c>
       <c r="M174" s="2"/>
       <c r="N174" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="O174" t="s" s="2">
         <v>45</v>
@@ -22089,7 +22085,7 @@
         <v>45</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AF174" t="s" s="2">
         <v>43</v>
@@ -22098,16 +22094,16 @@
         <v>53</v>
       </c>
       <c r="AH174" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AI174" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ174" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK174" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="AI174" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ174" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK174" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="AL174" t="s" s="2">
         <v>154</v>
@@ -22116,7 +22112,7 @@
         <v>45</v>
       </c>
       <c r="AN174" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AO174" t="s" s="2">
         <v>45</v>
@@ -22124,7 +22120,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -22150,10 +22146,10 @@
         <v>257</v>
       </c>
       <c r="K175" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="L175" t="s" s="2">
         <v>490</v>
-      </c>
-      <c r="L175" t="s" s="2">
-        <v>491</v>
       </c>
       <c r="M175" s="2"/>
       <c r="N175" s="2"/>
@@ -22204,7 +22200,7 @@
         <v>45</v>
       </c>
       <c r="AE175" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AF175" t="s" s="2">
         <v>43</v>
@@ -22222,7 +22218,7 @@
         <v>45</v>
       </c>
       <c r="AK175" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AL175" t="s" s="2">
         <v>154</v>
@@ -22242,7 +22238,7 @@
         <v>412</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C176" t="s" s="2">
         <v>45</v>
@@ -22267,10 +22263,10 @@
         <v>413</v>
       </c>
       <c r="K176" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="L176" t="s" s="2">
         <v>500</v>
-      </c>
-      <c r="L176" t="s" s="2">
-        <v>501</v>
       </c>
       <c r="M176" s="2"/>
       <c r="N176" s="2"/>
@@ -23170,7 +23166,7 @@
         <v>442</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C184" t="s" s="2">
         <v>45</v>
@@ -23778,7 +23774,7 @@
       </c>
       <c r="P189" s="2"/>
       <c r="Q189" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="R189" t="s" s="2">
         <v>45</v>
@@ -25476,17 +25472,17 @@
         <v>45</v>
       </c>
       <c r="J204" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="K204" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="K204" t="s" s="2">
+      <c r="L204" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="L204" t="s" s="2">
-        <v>474</v>
       </c>
       <c r="M204" s="2"/>
       <c r="N204" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="O204" t="s" s="2">
         <v>45</v>
@@ -25562,7 +25558,7 @@
         <v>45</v>
       </c>
       <c r="AN204" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AO204" t="s" s="2">
         <v>45</v>
@@ -25570,7 +25566,7 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" t="s" s="2">
@@ -25599,11 +25595,11 @@
         <v>353</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="M205" s="2"/>
       <c r="N205" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="O205" t="s" s="2">
         <v>45</v>
@@ -25631,7 +25627,7 @@
         <v>161</v>
       </c>
       <c r="X205" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="Y205" t="s" s="2">
         <v>357</v>
@@ -25652,7 +25648,7 @@
         <v>45</v>
       </c>
       <c r="AE205" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AF205" t="s" s="2">
         <v>43</v>
@@ -25679,7 +25675,7 @@
         <v>45</v>
       </c>
       <c r="AN205" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AO205" t="s" s="2">
         <v>45</v>
@@ -25687,7 +25683,7 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" t="s" s="2">
@@ -25713,14 +25709,14 @@
         <v>264</v>
       </c>
       <c r="K206" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="L206" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="L206" t="s" s="2">
-        <v>484</v>
       </c>
       <c r="M206" s="2"/>
       <c r="N206" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="O206" t="s" s="2">
         <v>45</v>
@@ -25769,7 +25765,7 @@
         <v>45</v>
       </c>
       <c r="AE206" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AF206" t="s" s="2">
         <v>43</v>
@@ -25778,16 +25774,16 @@
         <v>53</v>
       </c>
       <c r="AH206" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AI206" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ206" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK206" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="AI206" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ206" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK206" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="AL206" t="s" s="2">
         <v>154</v>
@@ -25796,7 +25792,7 @@
         <v>45</v>
       </c>
       <c r="AN206" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AO206" t="s" s="2">
         <v>45</v>
@@ -25804,7 +25800,7 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B207" s="2"/>
       <c r="C207" t="s" s="2">
@@ -25830,10 +25826,10 @@
         <v>257</v>
       </c>
       <c r="K207" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="L207" t="s" s="2">
         <v>490</v>
-      </c>
-      <c r="L207" t="s" s="2">
-        <v>491</v>
       </c>
       <c r="M207" s="2"/>
       <c r="N207" s="2"/>
@@ -25884,7 +25880,7 @@
         <v>45</v>
       </c>
       <c r="AE207" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AF207" t="s" s="2">
         <v>43</v>
@@ -25902,7 +25898,7 @@
         <v>45</v>
       </c>
       <c r="AK207" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AL207" t="s" s="2">
         <v>154</v>
@@ -25919,7 +25915,7 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B208" s="2"/>
       <c r="C208" t="s" s="2">
@@ -25945,16 +25941,16 @@
         <v>413</v>
       </c>
       <c r="K208" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="L208" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="L208" t="s" s="2">
+      <c r="M208" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="M208" t="s" s="2">
+      <c r="N208" t="s" s="2">
         <v>507</v>
-      </c>
-      <c r="N208" t="s" s="2">
-        <v>508</v>
       </c>
       <c r="O208" t="s" s="2">
         <v>45</v>
@@ -26003,7 +25999,7 @@
         <v>45</v>
       </c>
       <c r="AE208" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AF208" t="s" s="2">
         <v>43</v>
@@ -26015,13 +26011,13 @@
         <v>45</v>
       </c>
       <c r="AI208" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="AJ208" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AK208" t="s" s="2">
         <v>509</v>
-      </c>
-      <c r="AJ208" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="AK208" t="s" s="2">
-        <v>510</v>
       </c>
       <c r="AL208" t="s" s="2">
         <v>154</v>
@@ -26038,7 +26034,7 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B209" s="2"/>
       <c r="C209" t="s" s="2">
@@ -26153,7 +26149,7 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B210" s="2"/>
       <c r="C210" t="s" s="2">
@@ -26270,7 +26266,7 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" t="s" s="2">
@@ -26387,7 +26383,7 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B212" s="2"/>
       <c r="C212" t="s" s="2">
@@ -26413,16 +26409,16 @@
         <v>238</v>
       </c>
       <c r="K212" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="L212" t="s" s="2">
         <v>515</v>
       </c>
-      <c r="L212" t="s" s="2">
+      <c r="M212" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="M212" t="s" s="2">
+      <c r="N212" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="N212" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="O212" t="s" s="2">
         <v>45</v>
@@ -26447,14 +26443,14 @@
         <v>45</v>
       </c>
       <c r="W212" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="X212" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="X212" t="s" s="2">
+      <c r="Y212" t="s" s="2">
         <v>520</v>
       </c>
-      <c r="Y212" t="s" s="2">
-        <v>521</v>
-      </c>
       <c r="Z212" t="s" s="2">
         <v>45</v>
       </c>
@@ -26471,7 +26467,7 @@
         <v>45</v>
       </c>
       <c r="AE212" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AF212" t="s" s="2">
         <v>53</v>
@@ -26498,7 +26494,7 @@
         <v>45</v>
       </c>
       <c r="AN212" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AO212" t="s" s="2">
         <v>45</v>
@@ -26506,7 +26502,7 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" t="s" s="2">
@@ -26532,16 +26528,16 @@
         <v>238</v>
       </c>
       <c r="K213" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="L213" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="L213" t="s" s="2">
+      <c r="M213" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="M213" t="s" s="2">
+      <c r="N213" t="s" s="2">
         <v>526</v>
-      </c>
-      <c r="N213" t="s" s="2">
-        <v>527</v>
       </c>
       <c r="O213" t="s" s="2">
         <v>45</v>
@@ -26566,14 +26562,14 @@
         <v>45</v>
       </c>
       <c r="W213" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="X213" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="Y213" t="s" s="2">
         <v>528</v>
       </c>
-      <c r="Y213" t="s" s="2">
-        <v>529</v>
-      </c>
       <c r="Z213" t="s" s="2">
         <v>45</v>
       </c>
@@ -26590,7 +26586,7 @@
         <v>45</v>
       </c>
       <c r="AE213" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AF213" t="s" s="2">
         <v>43</v>
@@ -26608,7 +26604,7 @@
         <v>45</v>
       </c>
       <c r="AK213" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AL213" t="s" s="2">
         <v>154</v>
@@ -26617,7 +26613,7 @@
         <v>45</v>
       </c>
       <c r="AN213" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AO213" t="s" s="2">
         <v>45</v>
@@ -26625,7 +26621,7 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" t="s" s="2">
@@ -26651,14 +26647,14 @@
         <v>238</v>
       </c>
       <c r="K214" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="L214" t="s" s="2">
         <v>533</v>
-      </c>
-      <c r="L214" t="s" s="2">
-        <v>534</v>
       </c>
       <c r="M214" s="2"/>
       <c r="N214" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="O214" t="s" s="2">
         <v>45</v>
@@ -26683,14 +26679,14 @@
         <v>45</v>
       </c>
       <c r="W214" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="X214" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="Y214" t="s" s="2">
         <v>536</v>
       </c>
-      <c r="Y214" t="s" s="2">
-        <v>537</v>
-      </c>
       <c r="Z214" t="s" s="2">
         <v>45</v>
       </c>
@@ -26707,7 +26703,7 @@
         <v>45</v>
       </c>
       <c r="AE214" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AF214" t="s" s="2">
         <v>43</v>
@@ -26725,7 +26721,7 @@
         <v>45</v>
       </c>
       <c r="AK214" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AL214" t="s" s="2">
         <v>154</v>
@@ -26742,7 +26738,7 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" t="s" s="2">
@@ -26768,16 +26764,16 @@
         <v>413</v>
       </c>
       <c r="K215" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="L215" t="s" s="2">
         <v>540</v>
       </c>
-      <c r="L215" t="s" s="2">
+      <c r="M215" t="s" s="2">
         <v>541</v>
       </c>
-      <c r="M215" t="s" s="2">
+      <c r="N215" t="s" s="2">
         <v>542</v>
-      </c>
-      <c r="N215" t="s" s="2">
-        <v>543</v>
       </c>
       <c r="O215" t="s" s="2">
         <v>45</v>
@@ -26826,7 +26822,7 @@
         <v>45</v>
       </c>
       <c r="AE215" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AF215" t="s" s="2">
         <v>43</v>
@@ -26838,16 +26834,16 @@
         <v>45</v>
       </c>
       <c r="AI215" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AJ215" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AK215" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="AL215" t="s" s="2">
         <v>544</v>
-      </c>
-      <c r="AL215" t="s" s="2">
-        <v>545</v>
       </c>
       <c r="AM215" t="s" s="2">
         <v>45</v>
@@ -26861,7 +26857,7 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" t="s" s="2">
@@ -26976,7 +26972,7 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B217" s="2"/>
       <c r="C217" t="s" s="2">
@@ -27093,7 +27089,7 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B218" s="2"/>
       <c r="C218" t="s" s="2">
@@ -27210,7 +27206,7 @@
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" t="s" s="2">
@@ -27236,16 +27232,16 @@
         <v>238</v>
       </c>
       <c r="K219" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="L219" t="s" s="2">
         <v>550</v>
       </c>
-      <c r="L219" t="s" s="2">
+      <c r="M219" t="s" s="2">
         <v>551</v>
       </c>
-      <c r="M219" t="s" s="2">
+      <c r="N219" t="s" s="2">
         <v>552</v>
-      </c>
-      <c r="N219" t="s" s="2">
-        <v>553</v>
       </c>
       <c r="O219" t="s" s="2">
         <v>45</v>
@@ -27274,7 +27270,7 @@
       </c>
       <c r="X219" s="2"/>
       <c r="Y219" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="Z219" t="s" s="2">
         <v>45</v>
@@ -27292,7 +27288,7 @@
         <v>45</v>
       </c>
       <c r="AE219" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AF219" t="s" s="2">
         <v>53</v>
@@ -27307,19 +27303,19 @@
         <v>45</v>
       </c>
       <c r="AJ219" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AK219" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="AL219" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="AL219" t="s" s="2">
+      <c r="AM219" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN219" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="AM219" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AN219" t="s" s="2">
-        <v>557</v>
       </c>
       <c r="AO219" t="s" s="2">
         <v>45</v>
@@ -27327,7 +27323,7 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B220" s="2"/>
       <c r="C220" t="s" s="2">
@@ -27353,16 +27349,16 @@
         <v>211</v>
       </c>
       <c r="K220" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="L220" t="s" s="2">
         <v>559</v>
       </c>
-      <c r="L220" t="s" s="2">
+      <c r="M220" t="s" s="2">
         <v>560</v>
       </c>
-      <c r="M220" t="s" s="2">
+      <c r="N220" t="s" s="2">
         <v>561</v>
-      </c>
-      <c r="N220" t="s" s="2">
-        <v>562</v>
       </c>
       <c r="O220" t="s" s="2">
         <v>45</v>
@@ -27411,7 +27407,7 @@
         <v>45</v>
       </c>
       <c r="AE220" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AF220" t="s" s="2">
         <v>43</v>
@@ -27429,16 +27425,16 @@
         <v>45</v>
       </c>
       <c r="AK220" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AL220" t="s" s="2">
         <v>563</v>
       </c>
-      <c r="AL220" t="s" s="2">
+      <c r="AM220" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN220" t="s" s="2">
         <v>564</v>
-      </c>
-      <c r="AM220" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AN220" t="s" s="2">
-        <v>565</v>
       </c>
       <c r="AO220" t="s" s="2">
         <v>45</v>
@@ -27446,11 +27442,11 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B221" s="2"/>
       <c r="C221" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D221" s="2"/>
       <c r="E221" t="s" s="2">
@@ -27469,16 +27465,16 @@
         <v>45</v>
       </c>
       <c r="J221" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="K221" t="s" s="2">
         <v>568</v>
       </c>
-      <c r="K221" t="s" s="2">
+      <c r="L221" t="s" s="2">
         <v>569</v>
       </c>
-      <c r="L221" t="s" s="2">
+      <c r="M221" t="s" s="2">
         <v>570</v>
-      </c>
-      <c r="M221" t="s" s="2">
-        <v>571</v>
       </c>
       <c r="N221" s="2"/>
       <c r="O221" t="s" s="2">
@@ -27528,7 +27524,7 @@
         <v>45</v>
       </c>
       <c r="AE221" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="AF221" t="s" s="2">
         <v>43</v>
@@ -27546,7 +27542,7 @@
         <v>45</v>
       </c>
       <c r="AK221" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AL221" t="s" s="2">
         <v>154</v>
@@ -27555,7 +27551,7 @@
         <v>45</v>
       </c>
       <c r="AN221" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AO221" t="s" s="2">
         <v>45</v>
@@ -27563,7 +27559,7 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B222" s="2"/>
       <c r="C222" t="s" s="2">
@@ -27589,16 +27585,16 @@
         <v>264</v>
       </c>
       <c r="K222" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="L222" t="s" s="2">
         <v>575</v>
       </c>
-      <c r="L222" t="s" s="2">
+      <c r="M222" t="s" s="2">
         <v>576</v>
       </c>
-      <c r="M222" t="s" s="2">
+      <c r="N222" t="s" s="2">
         <v>577</v>
-      </c>
-      <c r="N222" t="s" s="2">
-        <v>578</v>
       </c>
       <c r="O222" t="s" s="2">
         <v>45</v>
@@ -27647,7 +27643,7 @@
         <v>45</v>
       </c>
       <c r="AE222" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AF222" t="s" s="2">
         <v>43</v>
@@ -27665,10 +27661,10 @@
         <v>45</v>
       </c>
       <c r="AK222" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AL222" t="s" s="2">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AM222" t="s" s="2">
         <v>45</v>
@@ -27682,7 +27678,7 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B223" s="2"/>
       <c r="C223" t="s" s="2">
@@ -27708,16 +27704,16 @@
         <v>413</v>
       </c>
       <c r="K223" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="L223" t="s" s="2">
         <v>581</v>
       </c>
-      <c r="L223" t="s" s="2">
+      <c r="M223" t="s" s="2">
         <v>582</v>
       </c>
-      <c r="M223" t="s" s="2">
+      <c r="N223" t="s" s="2">
         <v>583</v>
-      </c>
-      <c r="N223" t="s" s="2">
-        <v>584</v>
       </c>
       <c r="O223" t="s" s="2">
         <v>45</v>
@@ -27766,7 +27762,7 @@
         <v>45</v>
       </c>
       <c r="AE223" t="s" s="2">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AF223" t="s" s="2">
         <v>43</v>
@@ -27778,13 +27774,13 @@
         <v>45</v>
       </c>
       <c r="AI223" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AJ223" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK223" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AL223" t="s" s="2">
         <v>154</v>
@@ -27801,7 +27797,7 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B224" s="2"/>
       <c r="C224" t="s" s="2">
@@ -27916,7 +27912,7 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B225" s="2"/>
       <c r="C225" t="s" s="2">
@@ -28033,7 +28029,7 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" t="s" s="2">
@@ -28150,7 +28146,7 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" t="s" s="2">
@@ -28173,16 +28169,16 @@
         <v>54</v>
       </c>
       <c r="J227" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="K227" t="s" s="2">
         <v>590</v>
       </c>
-      <c r="K227" t="s" s="2">
+      <c r="L227" t="s" s="2">
         <v>591</v>
       </c>
-      <c r="L227" t="s" s="2">
+      <c r="M227" t="s" s="2">
         <v>592</v>
-      </c>
-      <c r="M227" t="s" s="2">
-        <v>593</v>
       </c>
       <c r="N227" s="2"/>
       <c r="O227" t="s" s="2">
@@ -28232,7 +28228,7 @@
         <v>45</v>
       </c>
       <c r="AE227" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AF227" t="s" s="2">
         <v>53</v>
@@ -28259,7 +28255,7 @@
         <v>45</v>
       </c>
       <c r="AN227" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AO227" t="s" s="2">
         <v>45</v>
@@ -28267,7 +28263,7 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B228" s="2"/>
       <c r="C228" t="s" s="2">
@@ -28293,10 +28289,10 @@
         <v>72</v>
       </c>
       <c r="K228" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="L228" t="s" s="2">
         <v>596</v>
-      </c>
-      <c r="L228" t="s" s="2">
-        <v>597</v>
       </c>
       <c r="M228" s="2"/>
       <c r="N228" s="2"/>
@@ -28326,11 +28322,11 @@
         <v>161</v>
       </c>
       <c r="X228" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="Y228" t="s" s="2">
         <v>597</v>
       </c>
-      <c r="Y228" t="s" s="2">
-        <v>598</v>
-      </c>
       <c r="Z228" t="s" s="2">
         <v>45</v>
       </c>
@@ -28347,7 +28343,7 @@
         <v>45</v>
       </c>
       <c r="AE228" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AF228" t="s" s="2">
         <v>53</v>
@@ -28365,7 +28361,7 @@
         <v>45</v>
       </c>
       <c r="AK228" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AL228" t="s" s="2">
         <v>154</v>
